--- a/data/trans_dic/P25_N_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_N_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene más de dos enfermedades crónicas</t>
+          <t>Población que tiene más de dos enfermedades crónicas (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,22%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>27,38%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>14,66%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>17,29%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>22,94%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>20,81%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>23,98%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 14,86</t>
+          <t>4,55; 14,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,86; 19,44</t>
+          <t>7,35; 20,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 15,89</t>
+          <t>5,73; 18,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,24; 22,61</t>
+          <t>9,69; 24,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,19; 28,68</t>
+          <t>10,37; 25,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,17; 31,25</t>
+          <t>14,08; 29,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,78; 30,75</t>
+          <t>15,03; 27,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,78; 41,22</t>
+          <t>16,78; 29,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,87; 19,63</t>
+          <t>15,91; 29,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,37; 22,92</t>
+          <t>23,01; 41,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,06; 21,61</t>
+          <t>17,51; 32,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,91; 29,09</t>
+          <t>19,68; 35,39</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>11,0; 19,04</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>13,19; 22,51</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>12,42; 21,54</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>17,61; 28,81</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>16,0; 27,06</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>18,97; 30,98</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,36%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>36,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>34,7%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>36,08%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>25,29%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>21,32%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>28,99%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>30,37%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>28,2%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,39; 21,73</t>
+          <t>10,59; 21,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,21; 18,13</t>
+          <t>8,4; 17,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,58; 26,23</t>
+          <t>10,77; 24,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,24; 30,68</t>
+          <t>15,76; 32,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,66; 44,56</t>
+          <t>13,19; 28,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,74; 29,16</t>
+          <t>14,61; 29,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,91; 32,9</t>
+          <t>28,73; 43,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,28; 42,55</t>
+          <t>18,19; 29,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,98; 30,7</t>
+          <t>21,22; 33,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,39; 21,59</t>
+          <t>27,25; 41,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,2; 26,33</t>
+          <t>34,07; 48,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,59; 34,33</t>
+          <t>28,62; 44,14</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>20,34; 30,37</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>14,09; 21,91</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>17,76; 27,33</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>23,29; 34,33</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>25,17; 36,02</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>22,5; 33,76</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>38,22%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>49,75%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>48,0%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>28,66%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>26,68%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>29,42%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>31,68%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>41,27%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>36,92%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,27; 32,75</t>
+          <t>16,86; 28,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,36; 23,66</t>
+          <t>13,56; 23,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,81; 29,64</t>
+          <t>17,23; 28,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,22; 32,04</t>
+          <t>19,87; 32,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,72; 42,5</t>
+          <t>26,44; 41,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,72; 39,51</t>
+          <t>19,49; 31,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,93; 40,39</t>
+          <t>29,45; 41,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,15; 44,1</t>
+          <t>30,4; 40,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,84; 35,79</t>
+          <t>31,19; 41,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,53; 30,77</t>
+          <t>32,39; 44,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25,73; 33,11</t>
+          <t>42,73; 56,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,33; 36,02</t>
+          <t>42,55; 53,85</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>24,67; 33,18</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>22,98; 30,22</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>26,03; 33,97</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>27,39; 36,34</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>36,25; 46,53</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>32,6; 41,34</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>35,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40,38%</t>
+          <t>41,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>48,71%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>56,29%</t>
+          <t>52,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,57%</t>
+          <t>48,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>41,11%</t>
+          <t>56,47%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>55,13%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>46,03%</t>
+          <t>61,16%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>61,05%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>41,84%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>40,01%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>45,92%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>47,9%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>53,93%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>52,02%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,03; 36,71</t>
+          <t>25,28; 37,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,66; 36,62</t>
+          <t>25,33; 35,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,16; 41,39</t>
+          <t>29,29; 41,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,58; 48,54</t>
+          <t>34,0; 48,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,56; 57,02</t>
+          <t>40,06; 54,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,3; 53,85</t>
+          <t>36,68; 49,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,14; 61,22</t>
+          <t>46,09; 57,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>46,88; 60,18</t>
+          <t>43,98; 54,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37,02; 45,58</t>
+          <t>50,67; 61,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,62; 44,47</t>
+          <t>48,66; 61,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>42,27; 50,04</t>
+          <t>54,58; 66,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>40,99; 51,31</t>
+          <t>55,68; 66,43</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>37,66; 46,07</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>36,22; 43,65</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>42,42; 49,78</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>42,84; 52,76</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>49,28; 58,5</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>47,03; 56,02</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>45,78%</t>
+          <t>46,38%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,86%</t>
+          <t>44,27%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>52,82%</t>
+          <t>52,93%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>62,54%</t>
+          <t>63,03%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>61,89%</t>
+          <t>64,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>59,71%</t>
+          <t>52,92%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>64,04%</t>
+          <t>61,78%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>75,23%</t>
+          <t>60,28%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>53,97%</t>
+          <t>64,11%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>51,79%</t>
+          <t>75,62%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>58,53%</t>
+          <t>72,23%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>69,16%</t>
+          <t>70,86%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>54,19%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>52,27%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>58,64%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>69,62%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>68,53%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>62,08%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,27; 52,73</t>
+          <t>39,02; 53,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,95; 50,72</t>
+          <t>38,31; 50,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,27; 59,41</t>
+          <t>47,07; 58,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>54,63; 69,51</t>
+          <t>55,15; 69,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,48; 68,04</t>
+          <t>57,18; 71,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,97; 65,91</t>
+          <t>45,6; 60,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>57,64; 69,6</t>
+          <t>55,4; 68,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68,8; 80,61</t>
+          <t>54,24; 66,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>49,27; 59,45</t>
+          <t>57,8; 69,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47,33; 56,49</t>
+          <t>69,1; 81,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>54,35; 62,91</t>
+          <t>65,27; 78,24</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>64,15; 73,86</t>
+          <t>62,56; 77,98</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>49,39; 59,18</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>48,12; 56,61</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>54,07; 62,77</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>64,22; 73,86</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>63,94; 72,71</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>57,38; 67,41</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>60,1%</t>
+          <t>60,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>59,92%</t>
+          <t>59,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>65,27%</t>
+          <t>64,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>65,3%</t>
+          <t>65,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>79,29%</t>
+          <t>59,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>71,47%</t>
+          <t>64,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>80,68%</t>
+          <t>79,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>77,63%</t>
+          <t>72,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>70,99%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>66,48%</t>
+          <t>76,23%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>74,0%</t>
+          <t>78,21%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>72,35%</t>
+          <t>79,62%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>71,67%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>67,14%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>73,32%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>71,61%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>70,35%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>72,9%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>50,63; 68,78</t>
+          <t>51,61; 68,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50,53; 67,6</t>
+          <t>50,69; 67,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>56,73; 72,5</t>
+          <t>56,37; 71,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>56,24; 72,51</t>
+          <t>57,31; 73,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>72,46; 84,44</t>
+          <t>51,39; 67,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>62,71; 77,21</t>
+          <t>54,98; 72,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>74,92; 85,69</t>
+          <t>73,42; 84,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>67,62; 84,76</t>
+          <t>66,23; 78,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>65,28; 75,55</t>
+          <t>74,54; 84,84</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>60,32; 71,07</t>
+          <t>66,37; 84,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>69,43; 78,39</t>
+          <t>70,74; 84,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>65,87; 77,84</t>
+          <t>72,39; 86,19</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>66,37; 76,26</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>61,99; 71,94</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>68,42; 77,21</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>64,86; 76,75</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>64,74; 75,95</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>66,99; 78,04</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>30,32%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>28,88%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>37,68%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>48,94%</t>
+          <t>49,29%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>53,88%</t>
+          <t>44,89%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>48,78%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>53,69%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>41,13%</t>
+          <t>56,79%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>45,83%</t>
+          <t>55,7%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>40,02%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>37,07%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>41,07%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>46,21%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>48,48%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>46,9%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,45; 33,28</t>
+          <t>27,49; 33,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,41; 31,74</t>
+          <t>26,4; 31,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,47; 36,02</t>
+          <t>30,34; 35,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>34,58; 41,2</t>
+          <t>35,4; 41,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>46,39; 52,05</t>
+          <t>36,45; 43,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>42,17; 47,14</t>
+          <t>34,22; 41,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>46,24; 51,93</t>
+          <t>46,74; 52,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>50,82; 57,27</t>
+          <t>42,35; 47,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>37,89; 42,44</t>
+          <t>46,2; 51,3</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>35,21; 38,94</t>
+          <t>50,75; 57,2</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>39,25; 43,3</t>
+          <t>53,78; 59,99</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>43,41; 48,33</t>
+          <t>52,45; 58,46</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>37,88; 42,04</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>35,09; 38,94</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>39,18; 43,1</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>43,77; 48,65</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>45,87; 50,72</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>44,48; 49,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene más de dos enfermedades crónicas (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>43558</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>64124</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>56391</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6664</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7459</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>96734</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>98729</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>115577</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>110646</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11565</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9736</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>130683</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>142287</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>179701</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>167037</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>18230</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>17195</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>227417</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>22845; 71792</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>38518; 109055</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>29237; 93074</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4078; 10101</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4571; 11293</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>66327; 140756</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>70471; 131151</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>86375; 153073</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>81753; 152082</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8604; 15341</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6749; 12590</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>93929; 168895</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>106773; 184823</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>137063; 233900</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>127194; 220608</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>13993; 22900</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>13216; 22355</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>179936; 293788</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>89048</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>70925</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>98790</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11758</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9922</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>123678</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>187220</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>118119</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>138271</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16382</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18928</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>182259</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>276269</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>189044</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>237060</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>28140</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>28850</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>305938</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>60707; 123615</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47495; 100631</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>64004; 146642</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7859; 16224</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6465; 13924</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>84723; 171250</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>149140; 226906</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>92407; 149762</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>109786; 173716</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12862; 19815</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15672; 22478</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>144576; 222968</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>222135; 331782</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>151251; 235173</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>197419; 303845</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>22610; 33324</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>23917; 34219</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>244094; 366346</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>150538</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>122673</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>153312</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15545</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>20423</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>171220</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>250358</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>250594</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>256789</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>20609</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>27289</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>344344</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>400896</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>373268</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>410101</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>36154</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>47711</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>515564</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>115724; 194462</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>92338; 160803</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>117206; 197043</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11963; 19517</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16066; 24990</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>132299; 213376</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>209854; 292397</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>218382; 287972</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>222593; 294284</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17465; 24053</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23441; 31055</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>305268; 386334</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>345038; 464133</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>321518; 422846</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>362840; 473467</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>31261; 41474</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>41909; 53796</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>455204; 577219</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>200681</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>198619</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>223825</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>24120</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>26848</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>282645</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>357055</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>329253</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>372675</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>28904</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>32727</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>403795</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>557736</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>527872</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>596500</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>53024</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>59575</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>686440</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>163655; 241401</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>163615; 229534</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>187156; 263038</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>19813; 28540</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>22815; 30878</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>241430; 324655</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>316021; 394053</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>296149; 364189</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>334392; 403549</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>25512; 32283</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>29208; 35680</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>368242; 439397</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>501981; 614088</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>477801; 575871</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>551013; 646664</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>47423; 58398</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>54437; 64629</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>620566; 739277</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>229749</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>223059</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>261196</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>28041</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>29181</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>261962</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>314476</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>303283</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>330246</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>36881</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>33839</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>366302</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>544225</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>526342</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>591442</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>64923</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>63019</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>628263</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>193294; 265369</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>193054; 254366</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>232298; 289899</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>24535; 31073</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>25800; 32088</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>225758; 297652</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>282040; 346846</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>272910; 333857</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>297725; 357518</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>33700; 39567</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>30574; 36652</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>323406; 403083</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>496101; 594409</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>484568; 570071</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>545327; 633144</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>59887; 68878</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>58802; 66866</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>580654; 682161</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>332177</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>316825</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>344441</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>30596</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>27248</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>363549</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>572930</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>505073</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>553759</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>48576</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>49800</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>584889</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>905107</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>821898</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>898200</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>79173</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>77048</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>948438</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>281383; 374482</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>268246; 355764</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>300102; 378710</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>26843; 34413</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>23562; 30770</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>311392; 409547</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>526955; 606178</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>460208; 542170</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>516287; 587626</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>42290; 53530</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>45043; 53989</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>531759; 633112</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>838171; 963055</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>758848; 880634</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>838136; 945831</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>71707; 84855</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>70903; 83174</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>871575; 1015334</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>477.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>403.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>658.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>740.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>812.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>576.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>635.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>693.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1034.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1161.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1289.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>949.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1038.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1118.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1045751</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>996226</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1137955</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>116725</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>121081</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1299787</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1780768</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1621900</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1762385</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>162919</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>172318</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2012272</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>2826519</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>2618125</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>2900340</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>279643</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>293399</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>3312058</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>948270; 1142850</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>910655; 1091354</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1046480; 1238393</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>106827; 126275</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>109980; 130290</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1180307; 1422891</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1688680; 1880584</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1529950; 1714654</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1668912; 1853246</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>153995; 173568</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>163189; 182027</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1894773; 2111891</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>2674955; 2968618</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>2478201; 2749740</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2766623; 3043839</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>264877; 294426</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>277592; 306980</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>3141493; 3467788</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
